--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de données/SFCC/New_account/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B96D694-0C05-1B47-9F41-31CBF17CA4B6}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807E8DB0-23B6-7C49-A2BE-D0728E884269}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -95,49 +95,49 @@
     <t>UC6_UAT</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>${emailOption}</t>
+  </si>
+  <si>
+    <t>${isLoyaltyMember}</t>
+  </si>
+  <si>
+    <t>${regions}</t>
+  </si>
+  <si>
+    <t>***websiteURL***</t>
+  </si>
+  <si>
+    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsfr-Site</t>
+  </si>
+  <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsus-Site</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsit-Site</t>
   </si>
   <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsuk-Site</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>CHE</t>
-  </si>
-  <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsch-Site</t>
   </si>
   <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsbnl-Site</t>
-  </si>
-  <si>
-    <t>BNL</t>
-  </si>
-  <si>
-    <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsfr-Site</t>
-  </si>
-  <si>
-    <t>${emailOption}</t>
-  </si>
-  <si>
-    <t>${isLoyaltyMember}</t>
-  </si>
-  <si>
-    <t>${regions}</t>
-  </si>
-  <si>
-    <t>***websiteURL***</t>
   </si>
 </sst>
 </file>
@@ -163,14 +163,6 @@
       <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -189,13 +181,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -208,6 +193,20 @@
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -274,7 +273,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -282,37 +281,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -714,45 +713,45 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>32</v>
+      <c r="L1" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -790,8 +789,8 @@
         <v>15</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="8" t="s">
-        <v>29</v>
+      <c r="M2" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -826,11 +825,11 @@
         <v>11</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="8" t="s">
-        <v>19</v>
+      <c r="M3" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -865,11 +864,11 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="8" t="s">
-        <v>22</v>
+      <c r="M4" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -904,11 +903,11 @@
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="8" t="s">
-        <v>23</v>
+      <c r="M5" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -943,11 +942,11 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
-        <v>26</v>
+      <c r="M6" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -982,13 +981,13 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>27</v>
+      <c r="M7" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1009,12 +1008,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{EAACA0BD-0D20-8640-B9A5-07D6AC711B33}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{BE2F3958-A629-ED4F-B4B6-C5FA7A4881FB}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{AE50D64A-3324-FE43-96EC-8B3B24276A5A}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{C205675A-61A0-A04C-88E6-DCF04EAADE20}"/>
-    <hyperlink ref="M4" r:id="rId5" xr:uid="{A74F57A2-11F3-5F4E-9DBC-7B98598B2858}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{84372582-4CAD-C14E-A665-16D44A3F402E}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{E3E5BC53-40A7-9447-ABDC-A0A96D99BD1C}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{FA235F05-52EB-4C42-97CA-D7F93BF8D952}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{94593556-BA45-C34A-AC7F-2EB1DCF787B0}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{6DF75395-8AD9-5A4F-9FD2-857B2845F517}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{51E94AF3-9EF8-5E45-8C93-74FBB5DA68DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807E8DB0-23B6-7C49-A2BE-D0728E884269}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BCF27A5-6839-2349-BA0F-7834E3B74191}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -691,9 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,7 +711,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BCF27A5-6839-2349-BA0F-7834E3B74191}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F6E727-797B-2F4C-9A0B-D6705A6F79E4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -691,7 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
@@ -796,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -835,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -874,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -913,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -952,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F6E727-797B-2F4C-9A0B-D6705A6F79E4}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A685ED-E9A2-1D43-BFBA-7CE44CF2B9F5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -954,7 +954,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A685ED-E9A2-1D43-BFBA-7CE44CF2B9F5}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EB3B70-B2E8-8143-8425-FC7F9BDBC466}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>*** Test Cases ***</t>
   </si>
   <si>
-    <t>UC1_UAT</t>
-  </si>
-  <si>
     <t>${BirthDate}</t>
   </si>
   <si>
@@ -59,15 +56,9 @@
     <t>${Email}</t>
   </si>
   <si>
-    <t>UC2_UAT</t>
-  </si>
-  <si>
     <t>auto</t>
   </si>
   <si>
-    <t>UC3_UAT</t>
-  </si>
-  <si>
     <t>${playTest}</t>
   </si>
   <si>
@@ -86,15 +77,6 @@
     <t>FRA</t>
   </si>
   <si>
-    <t>UC4_UAT</t>
-  </si>
-  <si>
-    <t>UC5_UAT</t>
-  </si>
-  <si>
-    <t>UC6_UAT</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -119,9 +101,6 @@
     <t>${regions}</t>
   </si>
   <si>
-    <t>***websiteURL***</t>
-  </si>
-  <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsfr-Site</t>
   </si>
   <si>
@@ -138,6 +117,27 @@
   </si>
   <si>
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsbnl-Site</t>
+  </si>
+  <si>
+    <t>UC1__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t>UC2__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t>UC3__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t>UC4__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t>UC5__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t>UC6__SFCC_Create_UAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***websiteURL*** For debugging purposes </t>
   </si>
 </sst>
 </file>
@@ -692,12 +692,12 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B2:B6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -709,7 +709,7 @@
     <col min="10" max="10" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="92.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -718,276 +718,276 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EB3B70-B2E8-8143-8425-FC7F9BDBC466}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1803EE-1E3F-BD47-A45A-1A73B7FB73AC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t xml:space="preserve">***websiteURL*** For debugging purposes </t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +210,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -275,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,6 +322,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -689,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -713,7 +723,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="19" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -754,7 +764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -783,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
@@ -793,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -819,10 +829,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
@@ -832,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="20">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -858,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -871,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -900,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
@@ -910,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -936,10 +946,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
@@ -949,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -978,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -989,6 +999,9 @@
       <c r="M7" s="14" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="M13" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E1803EE-1E3F-BD47-A45A-1A73B7FB73AC}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59F45F5-7614-3849-AC0C-A52831E55E57}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -769,7 +772,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -808,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -886,7 +889,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -925,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -964,7 +967,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59F45F5-7614-3849-AC0C-A52831E55E57}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394A5019-B288-3A48-8D8E-7C99A4DE0F58}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -705,7 +702,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -772,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -811,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -889,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -928,7 +925,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -967,7 +964,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="368" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394A5019-B288-3A48-8D8E-7C99A4DE0F58}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394A5019-B288-3A48-8D8E-7C99A4DE0F58}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDB7193-D4FD-5C47-A134-14F402F8BFC5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -769,7 +772,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/SFCC/New-account/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDB7193-D4FD-5C47-A134-14F402F8BFC5}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FA7A0C-ABF6-4ED2-8F9A-DE5ED9472478}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -119,31 +119,46 @@
     <t>https://staging-clarins-ecommera.demandware.net/on/demandware.store/Sites-clarinsbnl-Site</t>
   </si>
   <si>
-    <t>UC1__SFCC_Create_UAT</t>
-  </si>
-  <si>
-    <t>UC2__SFCC_Create_UAT</t>
-  </si>
-  <si>
-    <t>UC3__SFCC_Create_UAT</t>
-  </si>
-  <si>
-    <t>UC4__SFCC_Create_UAT</t>
-  </si>
-  <si>
-    <t>UC5__SFCC_Create_UAT</t>
-  </si>
-  <si>
-    <t>UC6__SFCC_Create_UAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">***websiteURL*** For debugging purposes </t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>UC1_SFCC_Create_Account_FRA_UAT</t>
+  </si>
+  <si>
+    <t>UC2_SFCC_Create_Account_USA_UAT</t>
+  </si>
+  <si>
+    <t>UC3_SFCC_Create_Account_ITA_UAT</t>
+  </si>
+  <si>
+    <t>UC4_SFCC_Create_Account_GBR_UAT</t>
+  </si>
+  <si>
+    <t>UC5_SFCC_Create_Account_CHE_UAT</t>
+  </si>
+  <si>
+    <t>UC6_SFCC_Create_Account_BEL_UAT</t>
+  </si>
+  <si>
+    <t>UC7_SFCC_Create_Account_LUX_UAT</t>
+  </si>
+  <si>
+    <t>UC8_SFCC_Create_Account_NLD_UAT</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>@{checkSystems}</t>
   </si>
 </sst>
 </file>
@@ -287,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,12 +341,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -702,31 +740,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC4A3E-ED2A-A240-8C79-297922065A66}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="80.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="23.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="19" customHeight="1">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="19.05" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -763,16 +802,19 @@
       <c r="L1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
+      <c r="M1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20">
+    <row r="2" spans="1:14" ht="21">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -793,22 +835,25 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="7"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20">
+    <row r="3" spans="1:14" ht="21">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -832,22 +877,25 @@
         <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20">
+    <row r="4" spans="1:14" ht="21">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -871,22 +919,25 @@
         <v>6</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20">
+    <row r="5" spans="1:14" ht="21">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -910,22 +961,25 @@
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20">
+    <row r="6" spans="1:14" ht="21">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -949,22 +1003,25 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20">
+    <row r="7" spans="1:14" ht="21">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -988,48 +1045,149 @@
         <v>6</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="M13" s="15"/>
+    <row r="8" spans="1:14" ht="21">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="21">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.399999999999999">
+      <c r="N13" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+  <conditionalFormatting sqref="B2:J9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 B2:J7">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{E3E5BC53-40A7-9447-ABDC-A0A96D99BD1C}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{FA235F05-52EB-4C42-97CA-D7F93BF8D952}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{94593556-BA45-C34A-AC7F-2EB1DCF787B0}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{6DF75395-8AD9-5A4F-9FD2-857B2845F517}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{51E94AF3-9EF8-5E45-8C93-74FBB5DA68DA}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{E3E5BC53-40A7-9447-ABDC-A0A96D99BD1C}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{192CDE7C-4B7F-B146-A980-7F3F6489C6A4}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{FA235F05-52EB-4C42-97CA-D7F93BF8D952}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{94593556-BA45-C34A-AC7F-2EB1DCF787B0}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{6DF75395-8AD9-5A4F-9FD2-857B2845F517}"/>
+    <hyperlink ref="N7" r:id="rId6" xr:uid="{51E94AF3-9EF8-5E45-8C93-74FBB5DA68DA}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{ACACBAB0-AEFA-4078-AE75-6463A983B218}"/>
+    <hyperlink ref="N9" r:id="rId8" xr:uid="{F8E82996-F887-4C18-B28E-FD37B1015065}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14FA7A0C-ABF6-4ED2-8F9A-DE5ED9472478}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C9B9C1-2AF9-44B6-92D9-EC174283255D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74C9B9C1-2AF9-44B6-92D9-EC174283255D}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBFE260-0A87-45A0-ABCB-1441AE50B741}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1112,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBBFE260-0A87-45A0-ABCB-1441AE50B741}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1E740F-7ABA-4828-9CE1-FF1167B59CF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1112,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D1E740F-7ABA-4828-9CE1-FF1167B59CF6}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9494E8F-913A-4F70-87ED-AF174FB4DE9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1112,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>

--- a/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
+++ b/Jeux de donnees/SFCC/New-account/jdd-New-account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_ramos-izquierdo_groupeonepoint_com/Documents/Bureau/Clarins/Outils/clarins_auto_uat_ihm/Jeux de donnees/SFCC/New-account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9494E8F-913A-4F70-87ED-AF174FB4DE9B}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="8_{F2498E7F-A211-5648-BD84-328060702354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D8608C9-E52F-4D81-A0FB-54830DEBCF02}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DDB3DD0-E88E-8949-89B8-E2C45E0A4C00}"/>
   </bookViews>
@@ -814,7 +814,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -898,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -1112,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
